--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86522.64279454254</v>
+        <v>84663.58751218375</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728206.37720686</v>
+        <v>4728206.377206865</v>
       </c>
     </row>
     <row r="8">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.4716714268617</v>
+        <v>223.8036394777309</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>301.0107215343887</v>
       </c>
       <c r="D11" t="n">
         <v>290.4208713840641</v>
       </c>
       <c r="E11" t="n">
-        <v>317.668199835643</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>342.6138755050926</v>
@@ -1385,10 +1385,10 @@
         <v>348.3052690752429</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.1997591548757</v>
       </c>
       <c r="I11" t="n">
-        <v>40.76113535209352</v>
+        <v>40.76113535209349</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.42729154253635</v>
+        <v>82.42729154253634</v>
       </c>
       <c r="T11" t="n">
         <v>146.8599114426837</v>
       </c>
       <c r="U11" t="n">
-        <v>17.26997727759587</v>
+        <v>186.8646588149558</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>305.4689304418502</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.9757684194348</v>
@@ -1449,7 +1449,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1464,10 +1464,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H12" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I12" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986551</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S12" t="n">
         <v>144.499048576932</v>
@@ -1531,19 +1531,19 @@
         <v>102.984650862009</v>
       </c>
       <c r="D13" t="n">
-        <v>84.35330278159351</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.17179240995033</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>81.1588777863124</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>102.5018485138552</v>
+        <v>20.58762813510863</v>
       </c>
       <c r="H13" t="n">
-        <v>87.0562070471024</v>
+        <v>87.05620704710239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.86261053062135</v>
       </c>
       <c r="S13" t="n">
         <v>138.3718506593841</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>158.4409511393645</v>
       </c>
       <c r="U13" t="n">
         <v>221.9899339958002</v>
@@ -1591,7 +1591,7 @@
         <v>222.2608280999722</v>
       </c>
       <c r="X13" t="n">
-        <v>48.15285346580161</v>
+        <v>161.4474851524183</v>
       </c>
       <c r="Y13" t="n">
         <v>154.322483115476</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>318.4716714268617</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>301.0107215343888</v>
       </c>
       <c r="D14" t="n">
-        <v>290.4208713840641</v>
+        <v>224.8119508419409</v>
       </c>
       <c r="E14" t="n">
         <v>317.668199835643</v>
       </c>
       <c r="F14" t="n">
-        <v>342.6138755050926</v>
+        <v>342.6138755050927</v>
       </c>
       <c r="G14" t="n">
-        <v>265.2353986406472</v>
+        <v>348.305269075243</v>
       </c>
       <c r="H14" t="n">
-        <v>247.1997591548757</v>
+        <v>247.1997591548758</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76113535209352</v>
+        <v>40.76113535209353</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.42729154253635</v>
+        <v>82.42729154253639</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>305.4689304418502</v>
+        <v>305.4689304418503</v>
       </c>
       <c r="Y14" t="n">
         <v>321.9757684194348</v>
@@ -1701,10 +1701,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H15" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I15" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S15" t="n">
         <v>144.499048576932</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.42154366133748</v>
+        <v>115.5698099453185</v>
       </c>
       <c r="C16" t="n">
         <v>102.984650862009</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>84.35330278159357</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.17179240995038</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.49236456402029</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5018485138552</v>
+        <v>102.5018485138553</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.29025295233654</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.86261053062137</v>
+        <v>57.86261053062141</v>
       </c>
       <c r="S16" t="n">
         <v>138.3718506593841</v>
       </c>
       <c r="T16" t="n">
-        <v>158.4409511393645</v>
+        <v>158.4409511393646</v>
       </c>
       <c r="U16" t="n">
         <v>221.9899339958002</v>
       </c>
       <c r="V16" t="n">
-        <v>187.8754730872092</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>222.2608280999722</v>
       </c>
       <c r="X16" t="n">
-        <v>161.4474851524183</v>
+        <v>161.4474851524184</v>
       </c>
       <c r="Y16" t="n">
         <v>154.322483115476</v>
@@ -1844,10 +1844,10 @@
         <v>238.1073382465104</v>
       </c>
       <c r="C17" t="n">
-        <v>220.6463883540373</v>
+        <v>220.6463883540374</v>
       </c>
       <c r="D17" t="n">
-        <v>210.0565382037127</v>
+        <v>210.0565382037128</v>
       </c>
       <c r="E17" t="n">
         <v>237.3038666552916</v>
@@ -1859,7 +1859,7 @@
         <v>267.9409358948915</v>
       </c>
       <c r="H17" t="n">
-        <v>166.8354259745243</v>
+        <v>166.8354259745244</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.062958362184993</v>
+        <v>2.062958362185</v>
       </c>
       <c r="T17" t="n">
-        <v>66.4955782623323</v>
+        <v>66.49557826233233</v>
       </c>
       <c r="U17" t="n">
         <v>106.5003256346044</v>
       </c>
       <c r="V17" t="n">
-        <v>183.1257550531647</v>
+        <v>82.71350598924289</v>
       </c>
       <c r="W17" t="n">
-        <v>104.2022162365208</v>
+        <v>204.6144653004428</v>
       </c>
       <c r="X17" t="n">
         <v>225.1045972614988</v>
@@ -1938,10 +1938,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H18" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I18" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S18" t="n">
         <v>144.499048576932</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.20547676496707</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C19" t="n">
-        <v>22.62031768165761</v>
+        <v>22.62031768165764</v>
       </c>
       <c r="D19" t="n">
-        <v>3.988969601242133</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E19" t="n">
-        <v>68.53417483934123</v>
+        <v>68.53417483934129</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7945446059610219</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G19" t="n">
-        <v>22.13751533350386</v>
+        <v>166.7640187504741</v>
       </c>
       <c r="H19" t="n">
         <v>151.3183772837212</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>58.00751747903269</v>
+        <v>58.0075174790327</v>
       </c>
       <c r="T19" t="n">
-        <v>222.7031213759833</v>
+        <v>78.07661795901312</v>
       </c>
       <c r="U19" t="n">
         <v>141.6256008154488</v>
@@ -2065,10 +2065,10 @@
         <v>141.8964949196208</v>
       </c>
       <c r="X19" t="n">
-        <v>81.08315197206693</v>
+        <v>81.08315197206696</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.95814993512457</v>
+        <v>73.9581499351246</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2081,10 @@
         <v>238.1073382465104</v>
       </c>
       <c r="C20" t="n">
-        <v>220.6463883540373</v>
+        <v>220.6463883540374</v>
       </c>
       <c r="D20" t="n">
-        <v>210.0565382037127</v>
+        <v>109.6442891397909</v>
       </c>
       <c r="E20" t="n">
         <v>237.3038666552916</v>
@@ -2096,7 +2096,7 @@
         <v>267.9409358948915</v>
       </c>
       <c r="H20" t="n">
-        <v>166.8354259745243</v>
+        <v>166.8354259745244</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.062958362184993</v>
+        <v>2.062958362185</v>
       </c>
       <c r="T20" t="n">
-        <v>66.4955782623323</v>
+        <v>66.49557826233233</v>
       </c>
       <c r="U20" t="n">
-        <v>106.5003256346044</v>
+        <v>106.5003256346045</v>
       </c>
       <c r="V20" t="n">
         <v>183.1257550531647</v>
@@ -2144,7 +2144,7 @@
         <v>204.6144653004428</v>
       </c>
       <c r="X20" t="n">
-        <v>124.6923481975776</v>
+        <v>225.1045972614988</v>
       </c>
       <c r="Y20" t="n">
         <v>241.6114352390834</v>
@@ -2175,10 +2175,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H21" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I21" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S21" t="n">
         <v>144.499048576932</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.20547676496707</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>22.62031768165764</v>
       </c>
       <c r="D22" t="n">
-        <v>86.60434272855858</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E22" t="n">
-        <v>1.807459229598948</v>
+        <v>1.807459229598976</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7945446059610219</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G22" t="n">
-        <v>22.13751533350386</v>
+        <v>22.13751533350388</v>
       </c>
       <c r="H22" t="n">
-        <v>6.691873866751019</v>
+        <v>6.691873866751044</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613065132155995</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.1247807672402</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>58.00751747903269</v>
+        <v>58.0075174790327</v>
       </c>
       <c r="T22" t="n">
-        <v>78.07661795901311</v>
+        <v>222.7031213759833</v>
       </c>
       <c r="U22" t="n">
         <v>141.6256008154488</v>
       </c>
       <c r="V22" t="n">
-        <v>107.5111399068578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>141.8964949196208</v>
+        <v>208.6232105293633</v>
       </c>
       <c r="X22" t="n">
-        <v>81.08315197206693</v>
+        <v>81.08315197206696</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.95814993512457</v>
+        <v>73.9581499351246</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2318,10 @@
         <v>238.1073382465104</v>
       </c>
       <c r="C23" t="n">
-        <v>220.6463883540373</v>
+        <v>220.6463883540374</v>
       </c>
       <c r="D23" t="n">
-        <v>210.0565382037127</v>
+        <v>210.0565382037128</v>
       </c>
       <c r="E23" t="n">
         <v>237.3038666552916</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.062958362184993</v>
+        <v>2.062958362185</v>
       </c>
       <c r="T23" t="n">
-        <v>66.4955782623323</v>
+        <v>66.49557826233233</v>
       </c>
       <c r="U23" t="n">
-        <v>106.5003256346044</v>
+        <v>106.5003256346045</v>
       </c>
       <c r="V23" t="n">
         <v>183.1257550531647</v>
@@ -2412,10 +2412,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H24" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I24" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S24" t="n">
         <v>144.499048576932</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.20547676496707</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C25" t="n">
-        <v>22.62031768165761</v>
+        <v>22.62031768165764</v>
       </c>
       <c r="D25" t="n">
-        <v>3.988969601242133</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.807459229598976</v>
       </c>
       <c r="F25" t="n">
-        <v>67.52126021570336</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G25" t="n">
-        <v>22.13751533350386</v>
+        <v>22.13751533350388</v>
       </c>
       <c r="H25" t="n">
-        <v>6.691873866751019</v>
+        <v>6.691873866751044</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>118.5524231889554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>92.80079583775718</v>
       </c>
       <c r="S25" t="n">
-        <v>58.00751747903269</v>
+        <v>202.6340208960029</v>
       </c>
       <c r="T25" t="n">
-        <v>78.07661795901311</v>
+        <v>78.07661795901312</v>
       </c>
       <c r="U25" t="n">
         <v>141.6256008154488</v>
@@ -2536,13 +2536,13 @@
         <v>107.5111399068578</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>141.8964949196208</v>
       </c>
       <c r="X25" t="n">
-        <v>81.08315197206693</v>
+        <v>81.08315197206696</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.95814993512457</v>
+        <v>73.9581499351246</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I26" t="n">
-        <v>24.65897240836098</v>
+        <v>24.65897240836097</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.32512859880384</v>
+        <v>66.32512859880386</v>
       </c>
       <c r="T26" t="n">
         <v>130.7577484989512</v>
@@ -2649,10 +2649,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H27" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I27" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S27" t="n">
         <v>144.499048576932</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.46764700158593</v>
+        <v>99.46764700158595</v>
       </c>
       <c r="C28" t="n">
-        <v>86.88248791827647</v>
+        <v>86.88248791827648</v>
       </c>
       <c r="D28" t="n">
-        <v>68.25113983786099</v>
+        <v>68.251139837861</v>
       </c>
       <c r="E28" t="n">
-        <v>66.06962946621609</v>
+        <v>66.06962946621782</v>
       </c>
       <c r="F28" t="n">
-        <v>65.05671484257988</v>
+        <v>65.05671484257989</v>
       </c>
       <c r="G28" t="n">
-        <v>86.39968557012273</v>
+        <v>86.39968557012274</v>
       </c>
       <c r="H28" t="n">
         <v>70.95404410336988</v>
@@ -2767,7 +2767,7 @@
         <v>142.338788195632</v>
       </c>
       <c r="U28" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520672</v>
       </c>
       <c r="V28" t="n">
         <v>171.7733101434766</v>
@@ -2792,25 +2792,25 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C29" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D29" t="n">
-        <v>274.3187084403316</v>
+        <v>274.3187084403315</v>
       </c>
       <c r="E29" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F29" t="n">
-        <v>326.5117125613601</v>
+        <v>326.51171256136</v>
       </c>
       <c r="G29" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H29" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I29" t="n">
-        <v>24.65897240836098</v>
+        <v>24.65897240836091</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.32512859880384</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T29" t="n">
-        <v>130.7577484989512</v>
+        <v>130.7577484989511</v>
       </c>
       <c r="U29" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V29" t="n">
         <v>247.3879252897835</v>
@@ -2855,7 +2855,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X29" t="n">
-        <v>289.3667674981177</v>
+        <v>289.3667674981176</v>
       </c>
       <c r="Y29" t="n">
         <v>305.8736054757022</v>
@@ -2886,10 +2886,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H30" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I30" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S30" t="n">
         <v>144.499048576932</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.46764700158593</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C31" t="n">
-        <v>86.88248791827647</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D31" t="n">
-        <v>68.25113983786099</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E31" t="n">
-        <v>66.0696294662178</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F31" t="n">
-        <v>65.05671484257988</v>
+        <v>65.05671484258021</v>
       </c>
       <c r="G31" t="n">
-        <v>86.39968557012273</v>
+        <v>86.39968557012268</v>
       </c>
       <c r="H31" t="n">
-        <v>70.95404410336988</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I31" t="n">
-        <v>38.18809000860402</v>
+        <v>38.18809000860396</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76044758688794</v>
+        <v>41.76044758688879</v>
       </c>
       <c r="S31" t="n">
         <v>122.2696877156515</v>
       </c>
       <c r="T31" t="n">
-        <v>142.338788195632</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U31" t="n">
         <v>205.8877710520676</v>
@@ -3013,7 +3013,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X31" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y31" t="n">
         <v>138.2203201717434</v>
@@ -3029,7 +3029,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C32" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D32" t="n">
         <v>274.3187084403315</v>
@@ -3041,13 +3041,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G32" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H32" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I32" t="n">
-        <v>24.65897240836095</v>
+        <v>24.6589724083609</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880377</v>
       </c>
       <c r="T32" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U32" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V32" t="n">
         <v>247.3879252897835</v>
@@ -3123,10 +3123,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H33" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I33" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S33" t="n">
         <v>144.499048576932</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C34" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D34" t="n">
-        <v>68.25113983786096</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E34" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F34" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G34" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H34" t="n">
-        <v>70.95404410336985</v>
+        <v>70.95404410336981</v>
       </c>
       <c r="I34" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860395</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S34" t="n">
         <v>122.2696877156515</v>
@@ -3250,7 +3250,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X34" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y34" t="n">
         <v>138.2203201717434</v>
@@ -3284,7 +3284,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I35" t="n">
-        <v>24.6589724083609</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.32512859880376</v>
+        <v>66.32512859880381</v>
       </c>
       <c r="T35" t="n">
         <v>130.7577484989511</v>
@@ -3332,7 +3332,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.8736054757021</v>
+        <v>305.8736054757022</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H36" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I36" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S36" t="n">
         <v>144.499048576932</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.46764700158585</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C37" t="n">
-        <v>86.88248791827638</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D37" t="n">
-        <v>68.2511398378609</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E37" t="n">
-        <v>66.06962946621772</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F37" t="n">
-        <v>65.05671484257979</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G37" t="n">
-        <v>86.39968557012263</v>
+        <v>86.39968557012268</v>
       </c>
       <c r="H37" t="n">
-        <v>70.9540441033698</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I37" t="n">
-        <v>38.18809000860394</v>
+        <v>38.18809000860397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.76044758688876</v>
+        <v>41.76044758688879</v>
       </c>
       <c r="S37" t="n">
         <v>122.2696877156515</v>
@@ -3478,7 +3478,7 @@
         <v>142.3387881956319</v>
       </c>
       <c r="U37" t="n">
-        <v>205.8877710520675</v>
+        <v>205.8877710520676</v>
       </c>
       <c r="V37" t="n">
         <v>171.7733101434766</v>
@@ -3490,7 +3490,7 @@
         <v>145.3453222086857</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.2203201717433</v>
+        <v>138.2203201717434</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G38" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H38" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I38" t="n">
-        <v>24.65897240836092</v>
+        <v>24.65897240836091</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.32512859880377</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T38" t="n">
         <v>130.7577484989511</v>
@@ -3569,7 +3569,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.8736054757021</v>
+        <v>305.8736054757022</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H39" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I39" t="n">
-        <v>39.0081176598659</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.29161491040486</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S39" t="n">
         <v>144.499048576932</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.46764700158585</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C40" t="n">
-        <v>86.88248791827638</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D40" t="n">
-        <v>68.2511398378609</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E40" t="n">
-        <v>66.06962946621772</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F40" t="n">
-        <v>65.05671484257979</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G40" t="n">
-        <v>86.39968557012263</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H40" t="n">
-        <v>70.9540441033698</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I40" t="n">
-        <v>38.18809000860394</v>
+        <v>38.18809000860396</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76044758688877</v>
+        <v>41.76044758688879</v>
       </c>
       <c r="S40" t="n">
         <v>122.2696877156515</v>
@@ -3727,7 +3727,7 @@
         <v>145.3453222086857</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.2203201717433</v>
+        <v>138.2203201717434</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>332.2031061315103</v>
       </c>
       <c r="H41" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I41" t="n">
         <v>24.65897240836091</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.32512859880376</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T41" t="n">
         <v>130.7577484989511</v>
@@ -3834,10 +3834,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H42" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I42" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S42" t="n">
         <v>144.499048576932</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.46764700158586</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C43" t="n">
-        <v>86.8824879182764</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D43" t="n">
-        <v>68.25113983786092</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E43" t="n">
-        <v>66.06962946621773</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F43" t="n">
-        <v>65.05671484257981</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G43" t="n">
-        <v>86.39968557012264</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H43" t="n">
-        <v>70.95404410336981</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I43" t="n">
-        <v>38.18809000860395</v>
+        <v>38.18809000860396</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76044758688877</v>
+        <v>41.76044758688879</v>
       </c>
       <c r="S43" t="n">
         <v>122.2696877156515</v>
@@ -3977,7 +3977,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C44" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D44" t="n">
         <v>274.3187084403315</v>
@@ -3992,10 +3992,10 @@
         <v>332.2031061315103</v>
       </c>
       <c r="H44" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I44" t="n">
-        <v>24.65897240836094</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.32512859880381</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T44" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U44" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V44" t="n">
         <v>247.3879252897835</v>
@@ -4071,10 +4071,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H45" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I45" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S45" t="n">
         <v>144.499048576932</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.46764700158589</v>
+        <v>99.4676470015859</v>
       </c>
       <c r="C46" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827644</v>
       </c>
       <c r="D46" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786096</v>
       </c>
       <c r="E46" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621778</v>
       </c>
       <c r="F46" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257985</v>
       </c>
       <c r="G46" t="n">
-        <v>86.39968557012268</v>
+        <v>86.3996855701227</v>
       </c>
       <c r="H46" t="n">
         <v>70.95404410336984</v>
@@ -4198,7 +4198,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X46" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y46" t="n">
         <v>138.2203201717434</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.502805775258</v>
+        <v>1638.373796536492</v>
       </c>
       <c r="C11" t="n">
-        <v>1405.502805775258</v>
+        <v>1334.322562663372</v>
       </c>
       <c r="D11" t="n">
-        <v>1112.1483902358</v>
+        <v>1040.968147123913</v>
       </c>
       <c r="E11" t="n">
-        <v>791.2714207048471</v>
+        <v>1040.968147123913</v>
       </c>
       <c r="F11" t="n">
-        <v>445.1967989825313</v>
+        <v>694.8935254015975</v>
       </c>
       <c r="G11" t="n">
-        <v>93.37329486612413</v>
+        <v>343.0700212851905</v>
       </c>
       <c r="H11" t="n">
-        <v>93.37329486612413</v>
+        <v>93.3732948661241</v>
       </c>
       <c r="I11" t="n">
         <v>52.20043087411047</v>
       </c>
       <c r="J11" t="n">
-        <v>102.7984511139569</v>
+        <v>270.20410013431</v>
       </c>
       <c r="K11" t="n">
-        <v>550.2742439612579</v>
+        <v>717.6798929816109</v>
       </c>
       <c r="L11" t="n">
-        <v>1157.684161046836</v>
+        <v>911.6052076622431</v>
       </c>
       <c r="M11" t="n">
-        <v>1405.132876480992</v>
+        <v>1159.053923096399</v>
       </c>
       <c r="N11" t="n">
-        <v>1661.199379209373</v>
+        <v>1415.12042582478</v>
       </c>
       <c r="O11" t="n">
-        <v>2266.652634747315</v>
+        <v>1848.418753379712</v>
       </c>
       <c r="P11" t="n">
-        <v>2427.137876695517</v>
+        <v>2327.484716417682</v>
       </c>
       <c r="Q11" t="n">
-        <v>2588.289006463509</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="R11" t="n">
         <v>2610.021543705524</v>
@@ -5072,19 +5072,19 @@
         <v>2378.418308366917</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.973886874396</v>
+        <v>2189.66612774575</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.973886874396</v>
+        <v>2189.66612774575</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.973886874396</v>
+        <v>2189.66612774575</v>
       </c>
       <c r="X11" t="n">
-        <v>2052.419411680608</v>
+        <v>2189.66612774575</v>
       </c>
       <c r="Y11" t="n">
-        <v>1727.191362772088</v>
+        <v>1864.43807883723</v>
       </c>
     </row>
     <row r="12">
@@ -5097,22 +5097,22 @@
         <v>957.1064540750156</v>
       </c>
       <c r="C12" t="n">
-        <v>782.6534247938889</v>
+        <v>782.6534247938886</v>
       </c>
       <c r="D12" t="n">
-        <v>633.7190151326377</v>
+        <v>633.7190151326373</v>
       </c>
       <c r="E12" t="n">
-        <v>474.4815601271822</v>
+        <v>474.4815601271818</v>
       </c>
       <c r="F12" t="n">
-        <v>327.9470021540671</v>
+        <v>327.9470021540668</v>
       </c>
       <c r="G12" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642089</v>
       </c>
       <c r="H12" t="n">
-        <v>91.60256992448005</v>
+        <v>91.60256992447968</v>
       </c>
       <c r="I12" t="n">
         <v>52.20043087411047</v>
@@ -5121,13 +5121,13 @@
         <v>188.3485431278349</v>
       </c>
       <c r="K12" t="n">
-        <v>547.668195436525</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L12" t="n">
-        <v>820.4280748539234</v>
+        <v>1092.222207051635</v>
       </c>
       <c r="M12" t="n">
-        <v>1046.828129983181</v>
+        <v>1446.007626220411</v>
       </c>
       <c r="N12" t="n">
         <v>1692.808462050298</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>597.8839454203962</v>
+        <v>264.9564773834236</v>
       </c>
       <c r="C13" t="n">
-        <v>493.8590455597811</v>
+        <v>160.9315775228085</v>
       </c>
       <c r="D13" t="n">
-        <v>408.6536892147371</v>
+        <v>160.9315775228085</v>
       </c>
       <c r="E13" t="n">
-        <v>325.6518786996357</v>
+        <v>160.9315775228085</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6732142690172</v>
+        <v>160.9315775228085</v>
       </c>
       <c r="G13" t="n">
         <v>140.1359935479513</v>
@@ -5200,16 +5200,16 @@
         <v>109.2730449275286</v>
       </c>
       <c r="K13" t="n">
-        <v>291.970805684555</v>
+        <v>291.9708056845549</v>
       </c>
       <c r="L13" t="n">
         <v>563.4959032733536</v>
       </c>
       <c r="M13" t="n">
-        <v>856.7118258711466</v>
+        <v>856.7118258711469</v>
       </c>
       <c r="N13" t="n">
-        <v>1149.90307628869</v>
+        <v>1149.903076288691</v>
       </c>
       <c r="O13" t="n">
         <v>1409.552953254355</v>
@@ -5221,28 +5221,28 @@
         <v>1697.422563974903</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.422563974903</v>
+        <v>1638.975482630841</v>
       </c>
       <c r="S13" t="n">
-        <v>1557.653017854313</v>
+        <v>1499.205936510251</v>
       </c>
       <c r="T13" t="n">
-        <v>1557.653017854313</v>
+        <v>1339.164571723014</v>
       </c>
       <c r="U13" t="n">
-        <v>1333.420761292899</v>
+        <v>1114.9323151616</v>
       </c>
       <c r="V13" t="n">
-        <v>1143.647556154303</v>
+        <v>925.1591100230048</v>
       </c>
       <c r="W13" t="n">
-        <v>919.1416691846346</v>
+        <v>700.653223053336</v>
       </c>
       <c r="X13" t="n">
-        <v>870.5024232595825</v>
+        <v>537.57495522261</v>
       </c>
       <c r="Y13" t="n">
-        <v>714.6211271833441</v>
+        <v>381.6936591463716</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1571.290572159379</v>
+        <v>1892.979129156209</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.290572159379</v>
+        <v>1588.927895283089</v>
       </c>
       <c r="D14" t="n">
-        <v>1277.93615661992</v>
+        <v>1361.845116654866</v>
       </c>
       <c r="E14" t="n">
-        <v>957.0591870889677</v>
+        <v>1040.968147123914</v>
       </c>
       <c r="F14" t="n">
-        <v>610.984565366652</v>
+        <v>694.8935254015978</v>
       </c>
       <c r="G14" t="n">
-        <v>343.0700212851901</v>
+        <v>343.0700212851908</v>
       </c>
       <c r="H14" t="n">
-        <v>93.37329486612413</v>
+        <v>93.37329486612416</v>
       </c>
       <c r="I14" t="n">
         <v>52.20043087411047</v>
       </c>
       <c r="J14" t="n">
-        <v>102.7984511139569</v>
+        <v>270.20410013431</v>
       </c>
       <c r="K14" t="n">
-        <v>550.2742439612579</v>
+        <v>523.792427756585</v>
       </c>
       <c r="L14" t="n">
-        <v>744.1995586418898</v>
+        <v>717.7177424372171</v>
       </c>
       <c r="M14" t="n">
-        <v>991.6482740760458</v>
+        <v>965.1664578713733</v>
       </c>
       <c r="N14" t="n">
-        <v>1247.714776804427</v>
+        <v>1221.232960599754</v>
       </c>
       <c r="O14" t="n">
-        <v>1853.16803234237</v>
+        <v>1826.686216137697</v>
       </c>
       <c r="P14" t="n">
-        <v>2327.484716417682</v>
+        <v>2305.752179175667</v>
       </c>
       <c r="Q14" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.289006463509</v>
       </c>
       <c r="R14" t="n">
         <v>2610.021543705524</v>
@@ -5349,7 +5349,7 @@
         <v>190.6944732642093</v>
       </c>
       <c r="H15" t="n">
-        <v>91.60256992448005</v>
+        <v>91.60256992448004</v>
       </c>
       <c r="I15" t="n">
         <v>52.20043087411047</v>
@@ -5358,16 +5358,16 @@
         <v>188.3485431278349</v>
       </c>
       <c r="K15" t="n">
-        <v>547.668195436525</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L15" t="n">
-        <v>1092.222207051634</v>
+        <v>1092.222207051635</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.622262180892</v>
+        <v>1446.007626220411</v>
       </c>
       <c r="N15" t="n">
-        <v>1565.423098010779</v>
+        <v>1692.808462050298</v>
       </c>
       <c r="O15" t="n">
         <v>1896.363215178962</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>314.601190801586</v>
+        <v>454.729682522018</v>
       </c>
       <c r="C16" t="n">
-        <v>210.5762909409709</v>
+        <v>350.7047826614029</v>
       </c>
       <c r="D16" t="n">
-        <v>210.5762909409709</v>
+        <v>265.4994263163588</v>
       </c>
       <c r="E16" t="n">
-        <v>210.5762909409709</v>
+        <v>182.4976158012574</v>
       </c>
       <c r="F16" t="n">
-        <v>210.5762909409709</v>
+        <v>155.7376515951764</v>
       </c>
       <c r="G16" t="n">
-        <v>107.039070219905</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="H16" t="n">
-        <v>107.039070219905</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="I16" t="n">
         <v>52.20043087411047</v>
       </c>
       <c r="J16" t="n">
-        <v>109.2730449275286</v>
+        <v>109.2730449275287</v>
       </c>
       <c r="K16" t="n">
         <v>291.970805684555</v>
@@ -5443,43 +5443,43 @@
         <v>563.4959032733536</v>
       </c>
       <c r="M16" t="n">
-        <v>856.7118258711467</v>
+        <v>856.7118258711466</v>
       </c>
       <c r="N16" t="n">
-        <v>1149.903076288691</v>
+        <v>1149.90307628869</v>
       </c>
       <c r="O16" t="n">
         <v>1409.552953254355</v>
       </c>
       <c r="P16" t="n">
-        <v>1617.389630818506</v>
+        <v>1617.389630818505</v>
       </c>
       <c r="Q16" t="n">
-        <v>1697.422563974903</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="R16" t="n">
-        <v>1638.975482630841</v>
+        <v>1638.97548263084</v>
       </c>
       <c r="S16" t="n">
-        <v>1499.205936510251</v>
+        <v>1499.20593651025</v>
       </c>
       <c r="T16" t="n">
-        <v>1339.164571723014</v>
+        <v>1339.164571723013</v>
       </c>
       <c r="U16" t="n">
         <v>1114.932315161599</v>
       </c>
       <c r="V16" t="n">
-        <v>925.1591100230044</v>
+        <v>1114.932315161599</v>
       </c>
       <c r="W16" t="n">
-        <v>700.6532230533355</v>
+        <v>890.4264281919301</v>
       </c>
       <c r="X16" t="n">
-        <v>537.5749552226098</v>
+        <v>727.3481603612045</v>
       </c>
       <c r="Y16" t="n">
-        <v>381.6936591463714</v>
+        <v>571.4668642849661</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>1431.021337346028</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.146197594475</v>
+        <v>1208.146197594476</v>
       </c>
       <c r="D17" t="n">
         <v>995.9678761765838</v>
@@ -5513,28 +5513,28 @@
         <v>52.20043087411047</v>
       </c>
       <c r="J17" t="n">
-        <v>270.2041001343099</v>
+        <v>270.20410013431</v>
       </c>
       <c r="K17" t="n">
         <v>717.6798929816109</v>
       </c>
       <c r="L17" t="n">
-        <v>949.6421204325376</v>
+        <v>911.6052076622431</v>
       </c>
       <c r="M17" t="n">
-        <v>1197.090835866694</v>
+        <v>1342.158637321491</v>
       </c>
       <c r="N17" t="n">
-        <v>1453.157338595074</v>
+        <v>1598.225140049872</v>
       </c>
       <c r="O17" t="n">
-        <v>2058.610594133017</v>
+        <v>1826.686216137697</v>
       </c>
       <c r="P17" t="n">
-        <v>2537.676557170987</v>
+        <v>2305.752179175667</v>
       </c>
       <c r="Q17" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.289006463509</v>
       </c>
       <c r="R17" t="n">
         <v>2610.021543705524</v>
@@ -5546,10 +5546,10 @@
         <v>2540.770496610051</v>
       </c>
       <c r="U17" t="n">
-        <v>2433.19441011045</v>
+        <v>2433.194410110451</v>
       </c>
       <c r="V17" t="n">
-        <v>2248.218899955739</v>
+        <v>2349.645414161721</v>
       </c>
       <c r="W17" t="n">
         <v>2142.964136080465</v>
@@ -5586,7 +5586,7 @@
         <v>190.6944732642093</v>
       </c>
       <c r="H18" t="n">
-        <v>91.60256992448005</v>
+        <v>91.60256992448004</v>
       </c>
       <c r="I18" t="n">
         <v>52.20043087411047</v>
@@ -5595,22 +5595,22 @@
         <v>188.3485431278349</v>
       </c>
       <c r="K18" t="n">
-        <v>547.668195436525</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L18" t="n">
-        <v>1092.222207051634</v>
+        <v>725.0902652012098</v>
       </c>
       <c r="M18" t="n">
-        <v>1318.622262180892</v>
+        <v>1371.070597268327</v>
       </c>
       <c r="N18" t="n">
-        <v>1565.423098010779</v>
+        <v>1617.871433098214</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.363215178962</v>
+        <v>2211.34988231084</v>
       </c>
       <c r="P18" t="n">
-        <v>2355.67892497901</v>
+        <v>2563.655439837501</v>
       </c>
       <c r="Q18" t="n">
         <v>2610.021543705524</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.3154807179762</v>
+        <v>470.4028579068353</v>
       </c>
       <c r="C19" t="n">
-        <v>301.4666749789282</v>
+        <v>447.5540521677871</v>
       </c>
       <c r="D19" t="n">
-        <v>297.4374127554512</v>
+        <v>443.5247899443102</v>
       </c>
       <c r="E19" t="n">
-        <v>228.2109735237934</v>
+        <v>374.2983507126523</v>
       </c>
       <c r="F19" t="n">
-        <v>227.4084032147419</v>
+        <v>373.4957804036007</v>
       </c>
       <c r="G19" t="n">
         <v>205.047276615243</v>
@@ -5677,19 +5677,19 @@
         <v>171.2786430968842</v>
       </c>
       <c r="L19" t="n">
-        <v>379.1841921514301</v>
+        <v>379.1841921514302</v>
       </c>
       <c r="M19" t="n">
-        <v>608.7805662149706</v>
+        <v>608.7805662149708</v>
       </c>
       <c r="N19" t="n">
-        <v>838.3522680982619</v>
+        <v>838.3522680982621</v>
       </c>
       <c r="O19" t="n">
         <v>1034.382596529673</v>
       </c>
       <c r="P19" t="n">
-        <v>1178.599725559571</v>
+        <v>1178.599725559572</v>
       </c>
       <c r="Q19" t="n">
         <v>1195.013110181716</v>
@@ -5701,22 +5701,22 @@
         <v>1136.419658182693</v>
       </c>
       <c r="T19" t="n">
-        <v>911.4670103281641</v>
+        <v>1057.554387517023</v>
       </c>
       <c r="U19" t="n">
-        <v>768.4108478883168</v>
+        <v>914.498225077176</v>
       </c>
       <c r="V19" t="n">
-        <v>659.8137368712887</v>
+        <v>805.901114060148</v>
       </c>
       <c r="W19" t="n">
-        <v>516.483944023187</v>
+        <v>662.5713212120461</v>
       </c>
       <c r="X19" t="n">
-        <v>434.5817703140284</v>
+        <v>580.6691475028875</v>
       </c>
       <c r="Y19" t="n">
-        <v>359.8765683593571</v>
+        <v>505.9639455482162</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1431.021337346029</v>
+        <v>1329.594823140048</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.146197594476</v>
+        <v>1106.719683388495</v>
       </c>
       <c r="D20" t="n">
-        <v>995.9678761765839</v>
+        <v>995.9678761765838</v>
       </c>
       <c r="E20" t="n">
         <v>756.2670007671984</v>
@@ -5750,25 +5750,25 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J20" t="n">
-        <v>102.7984511139569</v>
+        <v>228.2901173614107</v>
       </c>
       <c r="K20" t="n">
-        <v>229.3702855158047</v>
+        <v>675.7659102087117</v>
       </c>
       <c r="L20" t="n">
-        <v>739.4502796792327</v>
+        <v>869.6912248893439</v>
       </c>
       <c r="M20" t="n">
-        <v>986.8989951133888</v>
+        <v>1515.671556956461</v>
       </c>
       <c r="N20" t="n">
-        <v>1242.96549784177</v>
+        <v>1771.738059684842</v>
       </c>
       <c r="O20" t="n">
-        <v>1848.418753379713</v>
+        <v>2377.191315222785</v>
       </c>
       <c r="P20" t="n">
-        <v>2327.484716417682</v>
+        <v>2537.676557170988</v>
       </c>
       <c r="Q20" t="n">
         <v>2610.021543705524</v>
@@ -5783,19 +5783,19 @@
         <v>2540.770496610052</v>
       </c>
       <c r="U20" t="n">
-        <v>2433.194410110451</v>
+        <v>2433.194410110452</v>
       </c>
       <c r="V20" t="n">
         <v>2248.21889995574</v>
       </c>
       <c r="W20" t="n">
-        <v>2041.537621874484</v>
+        <v>2041.537621874485</v>
       </c>
       <c r="X20" t="n">
-        <v>1915.585755008244</v>
+        <v>1814.159240802264</v>
       </c>
       <c r="Y20" t="n">
-        <v>1671.533800221292</v>
+        <v>1570.10728601531</v>
       </c>
     </row>
     <row r="21">
@@ -5820,31 +5820,31 @@
         <v>327.9470021540671</v>
       </c>
       <c r="G21" t="n">
-        <v>190.6944732642096</v>
+        <v>190.6944732642093</v>
       </c>
       <c r="H21" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448004</v>
       </c>
       <c r="I21" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J21" t="n">
-        <v>63.51841814083016</v>
+        <v>63.51841814083019</v>
       </c>
       <c r="K21" t="n">
-        <v>422.8380704495203</v>
+        <v>161.0174858070676</v>
       </c>
       <c r="L21" t="n">
-        <v>967.3920820646294</v>
+        <v>705.5714974221769</v>
       </c>
       <c r="M21" t="n">
-        <v>1264.06044499494</v>
+        <v>1180.159089711247</v>
       </c>
       <c r="N21" t="n">
-        <v>1510.861280824827</v>
+        <v>1826.139421778365</v>
       </c>
       <c r="O21" t="n">
-        <v>2104.339730037453</v>
+        <v>2419.61787099099</v>
       </c>
       <c r="P21" t="n">
         <v>2563.655439837501</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>347.0444934954814</v>
+        <v>110.8273806909941</v>
       </c>
       <c r="C22" t="n">
-        <v>178.1083105675745</v>
+        <v>87.97857495194594</v>
       </c>
       <c r="D22" t="n">
-        <v>90.62917649832345</v>
+        <v>83.94931272846901</v>
       </c>
       <c r="E22" t="n">
-        <v>88.80346010478915</v>
+        <v>82.12359633493469</v>
       </c>
       <c r="F22" t="n">
-        <v>88.00088979573762</v>
+        <v>81.32102602588313</v>
       </c>
       <c r="G22" t="n">
-        <v>65.63976319623877</v>
+        <v>58.95989942638426</v>
       </c>
       <c r="H22" t="n">
-        <v>58.88029464396502</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I22" t="n">
-        <v>58.88029464396502</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J22" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="K22" t="n">
-        <v>171.2786430968842</v>
+        <v>171.2786430968843</v>
       </c>
       <c r="L22" t="n">
-        <v>379.1841921514301</v>
+        <v>379.1841921514302</v>
       </c>
       <c r="M22" t="n">
-        <v>608.7805662149706</v>
+        <v>608.7805662149708</v>
       </c>
       <c r="N22" t="n">
-        <v>838.3522680982619</v>
+        <v>838.3522680982621</v>
       </c>
       <c r="O22" t="n">
         <v>1034.382596529673</v>
       </c>
       <c r="P22" t="n">
-        <v>1178.599725559571</v>
+        <v>1178.599725559572</v>
       </c>
       <c r="Q22" t="n">
         <v>1195.013110181716</v>
       </c>
       <c r="R22" t="n">
-        <v>1071.654745770362</v>
+        <v>1195.013110181716</v>
       </c>
       <c r="S22" t="n">
-        <v>1013.061293771339</v>
+        <v>1136.419658182693</v>
       </c>
       <c r="T22" t="n">
-        <v>934.1960231056692</v>
+        <v>911.4670103281645</v>
       </c>
       <c r="U22" t="n">
-        <v>791.139860665822</v>
+        <v>768.4108478883172</v>
       </c>
       <c r="V22" t="n">
-        <v>682.5427496487939</v>
+        <v>513.7263596824304</v>
       </c>
       <c r="W22" t="n">
-        <v>539.2129568006922</v>
+        <v>302.9958439962048</v>
       </c>
       <c r="X22" t="n">
-        <v>457.3107830915336</v>
+        <v>221.0936702870463</v>
       </c>
       <c r="Y22" t="n">
-        <v>382.6055811368623</v>
+        <v>146.388468332375</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1210.216126455822</v>
       </c>
       <c r="D23" t="n">
-        <v>998.0378050379304</v>
+        <v>998.0378050379306</v>
       </c>
       <c r="E23" t="n">
-        <v>758.3369296285448</v>
+        <v>758.3369296285455</v>
       </c>
       <c r="F23" t="n">
-        <v>493.4384020277962</v>
+        <v>493.4384020277967</v>
       </c>
       <c r="G23" t="n">
         <v>222.7909920329564</v>
@@ -5990,19 +5990,19 @@
         <v>272.2740289956565</v>
       </c>
       <c r="K23" t="n">
-        <v>398.8458633975043</v>
+        <v>719.7498218429575</v>
       </c>
       <c r="L23" t="n">
-        <v>1006.255780483082</v>
+        <v>1053.138563499865</v>
       </c>
       <c r="M23" t="n">
-        <v>1677.851482209363</v>
+        <v>1300.587278934021</v>
       </c>
       <c r="N23" t="n">
-        <v>2252.226682202288</v>
+        <v>1556.653781662402</v>
       </c>
       <c r="O23" t="n">
-        <v>2480.687758290113</v>
+        <v>2162.107037200345</v>
       </c>
       <c r="P23" t="n">
         <v>2641.173000238315</v>
@@ -6017,13 +6017,13 @@
         <v>2711.434190447412</v>
       </c>
       <c r="T23" t="n">
-        <v>2644.266939677379</v>
+        <v>2644.26693967738</v>
       </c>
       <c r="U23" t="n">
-        <v>2536.690853177779</v>
+        <v>2536.69085317778</v>
       </c>
       <c r="V23" t="n">
-        <v>2351.715343023067</v>
+        <v>2351.715343023068</v>
       </c>
       <c r="W23" t="n">
         <v>2145.034064941812</v>
@@ -6069,7 +6069,7 @@
         <v>190.4184719891815</v>
       </c>
       <c r="K24" t="n">
-        <v>549.7381242978715</v>
+        <v>549.7381242978718</v>
       </c>
       <c r="L24" t="n">
         <v>1094.292135912981</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3854095793229</v>
+        <v>232.6472319654269</v>
       </c>
       <c r="C25" t="n">
-        <v>303.5366038402748</v>
+        <v>209.7984262263788</v>
       </c>
       <c r="D25" t="n">
-        <v>299.5073416167979</v>
+        <v>205.7691640029018</v>
       </c>
       <c r="E25" t="n">
-        <v>151.5942480344048</v>
+        <v>203.9434476093675</v>
       </c>
       <c r="F25" t="n">
-        <v>83.39095488722964</v>
+        <v>203.1408773003159</v>
       </c>
       <c r="G25" t="n">
-        <v>61.02982828773079</v>
+        <v>180.7797507008171</v>
       </c>
       <c r="H25" t="n">
-        <v>54.27035973545703</v>
+        <v>174.0202821485433</v>
       </c>
       <c r="I25" t="n">
         <v>54.27035973545703</v>
@@ -6148,16 +6148,16 @@
         <v>54.27035973545703</v>
       </c>
       <c r="K25" t="n">
-        <v>173.3485719582307</v>
+        <v>173.3485719582308</v>
       </c>
       <c r="L25" t="n">
-        <v>381.2541210127767</v>
+        <v>381.2541210127768</v>
       </c>
       <c r="M25" t="n">
-        <v>610.8504950763172</v>
+        <v>610.8504950763174</v>
       </c>
       <c r="N25" t="n">
-        <v>840.4221969596085</v>
+        <v>840.4221969596088</v>
       </c>
       <c r="O25" t="n">
         <v>1036.45252539102</v>
@@ -6166,31 +6166,31 @@
         <v>1180.669654420918</v>
       </c>
       <c r="Q25" t="n">
-        <v>1197.083039043062</v>
+        <v>1197.083039043063</v>
       </c>
       <c r="R25" t="n">
-        <v>1197.083039043062</v>
+        <v>1103.344861429166</v>
       </c>
       <c r="S25" t="n">
-        <v>1138.489587044039</v>
+        <v>898.6640322412848</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.624316378369</v>
+        <v>819.7987615756149</v>
       </c>
       <c r="U25" t="n">
-        <v>916.5681539385223</v>
+        <v>676.7425991357676</v>
       </c>
       <c r="V25" t="n">
-        <v>807.9710429214942</v>
+        <v>568.1454881187395</v>
       </c>
       <c r="W25" t="n">
-        <v>518.5538728845336</v>
+        <v>424.8156952706377</v>
       </c>
       <c r="X25" t="n">
-        <v>436.651699175375</v>
+        <v>342.9135215614791</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.9464972207037</v>
+        <v>268.2083196068078</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1866.521426036208</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C26" t="n">
         <v>1578.735003217363</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E26" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555021</v>
       </c>
       <c r="F26" t="n">
-        <v>667.2234295874616</v>
+        <v>667.2234295874615</v>
       </c>
       <c r="G26" t="n">
         <v>331.6647365253298</v>
       </c>
       <c r="H26" t="n">
-        <v>98.23282116053873</v>
+        <v>98.23282116053869</v>
       </c>
       <c r="I26" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J26" t="n">
         <v>291.3284374829998</v>
       </c>
       <c r="K26" t="n">
-        <v>417.9002718848477</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L26" t="n">
-        <v>895.9427565459441</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.409870138004</v>
+        <v>2038.68126100794</v>
       </c>
       <c r="N26" t="n">
-        <v>2277.44982803425</v>
+        <v>2294.747763736321</v>
       </c>
       <c r="O26" t="n">
-        <v>2882.903083572193</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P26" t="n">
-        <v>3361.969046610162</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q26" t="n">
-        <v>3644.505873898004</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R26" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U26" t="n">
         <v>3294.67742834307</v>
@@ -6291,22 +6291,22 @@
         <v>495.6058974758721</v>
       </c>
       <c r="F27" t="n">
-        <v>349.0713395027571</v>
+        <v>349.071339502757</v>
       </c>
       <c r="G27" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H27" t="n">
-        <v>112.72690727317</v>
+        <v>112.7269072731699</v>
       </c>
       <c r="I27" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J27" t="n">
         <v>209.4728804765248</v>
       </c>
       <c r="K27" t="n">
-        <v>568.7925327852149</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L27" t="n">
         <v>1113.346544400324</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.9932447349519</v>
+        <v>559.9932447349537</v>
       </c>
       <c r="C28" t="n">
-        <v>472.233155928612</v>
+        <v>472.2331559286138</v>
       </c>
       <c r="D28" t="n">
-        <v>403.2926106378433</v>
+        <v>403.2926106378451</v>
       </c>
       <c r="E28" t="n">
         <v>336.555611177019</v>
@@ -6379,19 +6379,19 @@
         <v>111.8985965143196</v>
       </c>
       <c r="I28" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J28" t="n">
-        <v>146.3385235905141</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K28" t="n">
-        <v>344.9774256618357</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L28" t="n">
-        <v>632.4436645649296</v>
+        <v>632.4436645649291</v>
       </c>
       <c r="M28" t="n">
-        <v>941.6007284770178</v>
+        <v>941.6007284770175</v>
       </c>
       <c r="N28" t="n">
         <v>1250.733120208857</v>
@@ -6415,19 +6415,19 @@
         <v>1536.612472748891</v>
       </c>
       <c r="U28" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V28" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W28" t="n">
-        <v>946.8955572420386</v>
+        <v>946.8955572420391</v>
       </c>
       <c r="X28" t="n">
-        <v>800.0821004655884</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.4656154436245</v>
+        <v>660.4656154436263</v>
       </c>
     </row>
     <row r="29">
@@ -6437,73 +6437,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1866.521426036208</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D29" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E29" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2234295874616</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G29" t="n">
         <v>331.6647365253298</v>
       </c>
       <c r="H29" t="n">
-        <v>98.23282116053872</v>
+        <v>98.23282116053863</v>
       </c>
       <c r="I29" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J29" t="n">
-        <v>123.9227884626468</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K29" t="n">
-        <v>571.3985813099478</v>
+        <v>665.525018910482</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.808498395526</v>
+        <v>1272.93493599606</v>
       </c>
       <c r="M29" t="n">
-        <v>1871.275611987586</v>
+        <v>1965.402049588121</v>
       </c>
       <c r="N29" t="n">
-        <v>2560.315569883831</v>
+        <v>2654.442007484366</v>
       </c>
       <c r="O29" t="n">
-        <v>3114.827461567512</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P29" t="n">
-        <v>3593.893424605481</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q29" t="n">
-        <v>3666.238411140018</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R29" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S29" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T29" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U29" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V29" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X29" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y29" t="n">
         <v>2171.945171978762</v>
@@ -6531,28 +6531,28 @@
         <v>349.071339502757</v>
       </c>
       <c r="G30" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H30" t="n">
         <v>112.7269072731699</v>
       </c>
       <c r="I30" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J30" t="n">
         <v>209.4728804765248</v>
       </c>
       <c r="K30" t="n">
-        <v>568.7925327852149</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L30" t="n">
         <v>1113.346544400324</v>
       </c>
       <c r="M30" t="n">
-        <v>1467.131963569101</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N30" t="n">
-        <v>1713.932799398988</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O30" t="n">
         <v>1917.487552527652</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.9932447349536</v>
+        <v>559.9932447349537</v>
       </c>
       <c r="C31" t="n">
         <v>472.2331559286138</v>
       </c>
       <c r="D31" t="n">
-        <v>403.2926106378451</v>
+        <v>403.2926106378452</v>
       </c>
       <c r="E31" t="n">
-        <v>336.555611177019</v>
+        <v>336.5556111770192</v>
       </c>
       <c r="F31" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G31" t="n">
-        <v>183.5693481338851</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H31" t="n">
-        <v>111.8985965143196</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I31" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905134</v>
       </c>
       <c r="K31" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618348</v>
       </c>
       <c r="L31" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649287</v>
       </c>
       <c r="M31" t="n">
-        <v>941.6007284770174</v>
+        <v>941.6007284770171</v>
       </c>
       <c r="N31" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O31" t="n">
         <v>1526.324138488816</v>
@@ -6646,25 +6646,25 @@
         <v>1803.893761548168</v>
       </c>
       <c r="S31" t="n">
-        <v>1680.389026481854</v>
+        <v>1680.389026481853</v>
       </c>
       <c r="T31" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U31" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V31" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W31" t="n">
-        <v>946.8955572420398</v>
+        <v>946.895557242039</v>
       </c>
       <c r="X31" t="n">
-        <v>800.0821004655895</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.4656154436262</v>
+        <v>660.4656154436263</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1866.521426036208</v>
+        <v>1866.521426036206</v>
       </c>
       <c r="C32" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D32" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732178</v>
       </c>
       <c r="E32" t="n">
-        <v>997.0332402555027</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2234295874623</v>
+        <v>667.2234295874609</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6647365253307</v>
+        <v>331.6647365253294</v>
       </c>
       <c r="H32" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053862</v>
       </c>
       <c r="I32" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J32" t="n">
-        <v>291.3284374829998</v>
+        <v>123.9227884626468</v>
       </c>
       <c r="K32" t="n">
-        <v>738.8042303303007</v>
+        <v>571.3985813099479</v>
       </c>
       <c r="L32" t="n">
-        <v>1346.214147415879</v>
+        <v>1178.808498395526</v>
       </c>
       <c r="M32" t="n">
-        <v>2038.681261007939</v>
+        <v>1871.275611987586</v>
       </c>
       <c r="N32" t="n">
-        <v>2727.721218904184</v>
+        <v>2560.315569883832</v>
       </c>
       <c r="O32" t="n">
-        <v>2956.18229499201</v>
+        <v>3165.768825421775</v>
       </c>
       <c r="P32" t="n">
-        <v>3383.701583852176</v>
+        <v>3593.893424605481</v>
       </c>
       <c r="Q32" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R32" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S32" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T32" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U32" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V32" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W32" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X32" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y32" t="n">
-        <v>2171.945171978763</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="33">
@@ -6768,19 +6768,19 @@
         <v>349.071339502757</v>
       </c>
       <c r="G33" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H33" t="n">
         <v>112.7269072731699</v>
       </c>
       <c r="I33" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J33" t="n">
         <v>209.4728804765248</v>
       </c>
       <c r="K33" t="n">
-        <v>568.7925327852149</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L33" t="n">
         <v>1113.346544400324</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.9932447349536</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2331559286138</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D34" t="n">
-        <v>403.2926106378451</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E34" t="n">
-        <v>336.555611177019</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F34" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G34" t="n">
-        <v>183.5693481338851</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H34" t="n">
-        <v>111.8985965143196</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I34" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J34" t="n">
         <v>146.3385235905138</v>
       </c>
       <c r="K34" t="n">
-        <v>344.9774256618353</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L34" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649293</v>
       </c>
       <c r="M34" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770177</v>
       </c>
       <c r="N34" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488817</v>
       </c>
       <c r="P34" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q34" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R34" t="n">
         <v>1803.893761548168</v>
       </c>
       <c r="S34" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481854</v>
       </c>
       <c r="T34" t="n">
         <v>1536.612472748892</v>
@@ -6898,10 +6898,10 @@
         <v>946.8955572420396</v>
       </c>
       <c r="X34" t="n">
-        <v>800.0821004655893</v>
+        <v>800.0821004655892</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.4656154436262</v>
+        <v>660.4656154436259</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C35" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E35" t="n">
-        <v>997.0332402555013</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F35" t="n">
-        <v>667.2234295874607</v>
+        <v>667.2234295874619</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253302</v>
       </c>
       <c r="H35" t="n">
-        <v>98.23282116053862</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I35" t="n">
         <v>73.32476822280034</v>
@@ -6938,25 +6938,25 @@
         <v>291.3284374829998</v>
       </c>
       <c r="K35" t="n">
-        <v>738.8042303303007</v>
+        <v>738.8042303303008</v>
       </c>
       <c r="L35" t="n">
         <v>1346.214147415879</v>
       </c>
       <c r="M35" t="n">
-        <v>1610.142407380018</v>
+        <v>2038.681261007939</v>
       </c>
       <c r="N35" t="n">
-        <v>2299.182365276263</v>
+        <v>2727.721218904184</v>
       </c>
       <c r="O35" t="n">
-        <v>2904.635620814206</v>
+        <v>3333.174474442128</v>
       </c>
       <c r="P35" t="n">
-        <v>3383.701583852176</v>
+        <v>3493.65971639033</v>
       </c>
       <c r="Q35" t="n">
-        <v>3666.238411140017</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R35" t="n">
         <v>3666.238411140017</v>
@@ -6971,16 +6971,16 @@
         <v>3294.67742834307</v>
       </c>
       <c r="V35" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W35" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X35" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y35" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>1113.346544400324</v>
       </c>
       <c r="M36" t="n">
-        <v>1467.131963569101</v>
+        <v>1800.794612642082</v>
       </c>
       <c r="N36" t="n">
-        <v>1713.932799398988</v>
+        <v>2047.595448471969</v>
       </c>
       <c r="O36" t="n">
-        <v>1917.487552527652</v>
+        <v>2251.150201600632</v>
       </c>
       <c r="P36" t="n">
-        <v>2376.8032623277</v>
+        <v>2395.187770447143</v>
       </c>
       <c r="Q36" t="n">
         <v>2631.145881054214</v>
@@ -7075,16 +7075,16 @@
         <v>472.2331559286133</v>
       </c>
       <c r="D37" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378446</v>
       </c>
       <c r="E37" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F37" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006753</v>
       </c>
       <c r="G37" t="n">
-        <v>183.5693481338849</v>
+        <v>183.5693481338847</v>
       </c>
       <c r="H37" t="n">
         <v>111.8985965143195</v>
@@ -7096,13 +7096,13 @@
         <v>146.3385235905138</v>
       </c>
       <c r="K37" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L37" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M37" t="n">
-        <v>941.6007284770178</v>
+        <v>941.6007284770177</v>
       </c>
       <c r="N37" t="n">
         <v>1250.733120208856</v>
@@ -7132,13 +7132,13 @@
         <v>1155.136633157432</v>
       </c>
       <c r="W37" t="n">
-        <v>946.8955572420389</v>
+        <v>946.895557242039</v>
       </c>
       <c r="X37" t="n">
-        <v>800.0821004655886</v>
+        <v>800.0821004655887</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.4656154436257</v>
+        <v>660.4656154436258</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>667.2234295874614</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6647365253298</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H38" t="n">
         <v>98.23282116053863</v>
       </c>
       <c r="I38" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J38" t="n">
-        <v>123.9227884626467</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K38" t="n">
-        <v>571.3985813099476</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.808498395525</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M38" t="n">
-        <v>1871.275611987586</v>
+        <v>2021.383325305867</v>
       </c>
       <c r="N38" t="n">
-        <v>2560.315569883831</v>
+        <v>2277.449828034248</v>
       </c>
       <c r="O38" t="n">
-        <v>3165.768825421774</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P38" t="n">
-        <v>3593.893424605481</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q38" t="n">
-        <v>3666.238411140017</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R38" t="n">
         <v>3666.238411140017</v>
@@ -7202,7 +7202,7 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T38" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U38" t="n">
         <v>3294.67742834307</v>
@@ -7217,7 +7217,7 @@
         <v>2480.908409833006</v>
       </c>
       <c r="Y38" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="39">
@@ -7242,25 +7242,25 @@
         <v>349.071339502757</v>
       </c>
       <c r="G39" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H39" t="n">
         <v>112.7269072731699</v>
       </c>
       <c r="I39" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J39" t="n">
-        <v>209.4728804765247</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K39" t="n">
-        <v>568.7925327852148</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L39" t="n">
-        <v>1113.346544400324</v>
+        <v>746.2146025498997</v>
       </c>
       <c r="M39" t="n">
-        <v>1467.131963569101</v>
+        <v>992.5830129689832</v>
       </c>
       <c r="N39" t="n">
         <v>1713.932799398988</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.9932447349526</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C40" t="n">
-        <v>472.2331559286127</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D40" t="n">
-        <v>403.2926106378441</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E40" t="n">
-        <v>336.5556111770181</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F40" t="n">
-        <v>270.8417578006749</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G40" t="n">
-        <v>183.5693481338844</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H40" t="n">
-        <v>111.898596514319</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I40" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J40" t="n">
-        <v>146.3385235905136</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K40" t="n">
-        <v>344.9774256618352</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L40" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649293</v>
       </c>
       <c r="M40" t="n">
-        <v>941.6007284770175</v>
+        <v>941.6007284770178</v>
       </c>
       <c r="N40" t="n">
         <v>1250.733120208857</v>
@@ -7348,34 +7348,34 @@
         <v>1526.324138488816</v>
       </c>
       <c r="P40" t="n">
-        <v>1750.101957367261</v>
+        <v>1750.101957367262</v>
       </c>
       <c r="Q40" t="n">
-        <v>1846.076031837953</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R40" t="n">
-        <v>1803.893761548167</v>
+        <v>1803.893761548168</v>
       </c>
       <c r="S40" t="n">
-        <v>1680.389026481852</v>
+        <v>1680.389026481853</v>
       </c>
       <c r="T40" t="n">
-        <v>1536.61247274889</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U40" t="n">
-        <v>1328.645027241751</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V40" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W40" t="n">
-        <v>946.8955572420382</v>
+        <v>946.8955572420393</v>
       </c>
       <c r="X40" t="n">
-        <v>800.082100465588</v>
+        <v>800.0821004655891</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.4656154436251</v>
+        <v>660.465615443626</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1578.735003217362</v>
       </c>
       <c r="D41" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E41" t="n">
-        <v>997.0332402555014</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F41" t="n">
-        <v>667.2234295874609</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H41" t="n">
         <v>98.23282116053863</v>
@@ -7412,22 +7412,22 @@
         <v>291.3284374829998</v>
       </c>
       <c r="K41" t="n">
-        <v>738.8042303303007</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L41" t="n">
         <v>1346.214147415879</v>
       </c>
       <c r="M41" t="n">
-        <v>1610.142407380017</v>
+        <v>2038.68126100794</v>
       </c>
       <c r="N41" t="n">
-        <v>2299.182365276262</v>
+        <v>2299.182365276263</v>
       </c>
       <c r="O41" t="n">
         <v>2904.635620814206</v>
       </c>
       <c r="P41" t="n">
-        <v>3383.701583852175</v>
+        <v>3383.701583852176</v>
       </c>
       <c r="Q41" t="n">
         <v>3666.238411140017</v>
@@ -7439,22 +7439,22 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T41" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U41" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V41" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W41" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X41" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y41" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7479,7 @@
         <v>349.071339502757</v>
       </c>
       <c r="G42" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H42" t="n">
         <v>112.7269072731699</v>
@@ -7491,7 +7491,7 @@
         <v>209.4728804765248</v>
       </c>
       <c r="K42" t="n">
-        <v>568.7925327852149</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L42" t="n">
         <v>1113.346544400324</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9932447349531</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C43" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D43" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E43" t="n">
         <v>336.5556111770188</v>
       </c>
       <c r="F43" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G43" t="n">
-        <v>183.5693481338849</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H43" t="n">
         <v>111.8985965143195</v>
@@ -7573,13 +7573,13 @@
         <v>344.9774256618355</v>
       </c>
       <c r="L43" t="n">
-        <v>632.4436645649289</v>
+        <v>632.4436645649291</v>
       </c>
       <c r="M43" t="n">
-        <v>941.6007284770172</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N43" t="n">
-        <v>1250.733120208856</v>
+        <v>1250.733120208857</v>
       </c>
       <c r="O43" t="n">
         <v>1526.324138488816</v>
@@ -7588,7 +7588,7 @@
         <v>1750.101957367262</v>
       </c>
       <c r="Q43" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R43" t="n">
         <v>1803.893761548168</v>
@@ -7597,22 +7597,22 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T43" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U43" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V43" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W43" t="n">
-        <v>946.8955572420389</v>
+        <v>946.8955572420393</v>
       </c>
       <c r="X43" t="n">
-        <v>800.0821004655886</v>
+        <v>800.0821004655891</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.4656154436257</v>
+        <v>660.465615443626</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C44" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D44" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E44" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F44" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G44" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H44" t="n">
-        <v>98.23282116053868</v>
+        <v>98.23282116053866</v>
       </c>
       <c r="I44" t="n">
         <v>73.32476822280036</v>
       </c>
       <c r="J44" t="n">
-        <v>123.9227884626468</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K44" t="n">
-        <v>571.3985813099478</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L44" t="n">
-        <v>1178.808498395526</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M44" t="n">
-        <v>1871.275611987586</v>
+        <v>1593.662862850035</v>
       </c>
       <c r="N44" t="n">
-        <v>2560.315569883831</v>
+        <v>2277.449828034249</v>
       </c>
       <c r="O44" t="n">
-        <v>3165.768825421775</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P44" t="n">
-        <v>3593.893424605481</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q44" t="n">
-        <v>3666.238411140018</v>
+        <v>3644.505873898004</v>
       </c>
       <c r="R44" t="n">
         <v>3666.238411140018</v>
       </c>
       <c r="S44" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T44" t="n">
         <v>3467.164797909962</v>
@@ -7682,13 +7682,13 @@
         <v>3294.67742834307</v>
       </c>
       <c r="V44" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W44" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X44" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y44" t="n">
         <v>2171.945171978762</v>
@@ -7728,13 +7728,13 @@
         <v>209.4728804765248</v>
       </c>
       <c r="K45" t="n">
-        <v>568.7925327852149</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L45" t="n">
-        <v>1113.346544400324</v>
+        <v>746.2146025498997</v>
       </c>
       <c r="M45" t="n">
-        <v>1467.131963569101</v>
+        <v>992.5830129689832</v>
       </c>
       <c r="N45" t="n">
         <v>1713.932799398988</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.9932447349532</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C46" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D46" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E46" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F46" t="n">
-        <v>270.8417578006754</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G46" t="n">
-        <v>183.5693481338848</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H46" t="n">
         <v>111.8985965143195</v>
@@ -7804,16 +7804,16 @@
         <v>73.32476822280036</v>
       </c>
       <c r="J46" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K46" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L46" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M46" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770178</v>
       </c>
       <c r="N46" t="n">
         <v>1250.733120208857</v>
@@ -7825,31 +7825,31 @@
         <v>1750.101957367262</v>
       </c>
       <c r="Q46" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R46" t="n">
         <v>1803.893761548168</v>
       </c>
       <c r="S46" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481854</v>
       </c>
       <c r="T46" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U46" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V46" t="n">
         <v>1155.136633157433</v>
       </c>
       <c r="W46" t="n">
-        <v>946.8955572420391</v>
+        <v>946.8955572420398</v>
       </c>
       <c r="X46" t="n">
-        <v>800.0821004655888</v>
+        <v>800.0821004655895</v>
       </c>
       <c r="Y46" t="n">
-        <v>660.4656154436259</v>
+        <v>660.465615443626</v>
       </c>
     </row>
   </sheetData>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>206.9063146132387</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.70317498328882</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.30081783102401</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>128.6720848884024</v>
       </c>
       <c r="N12" t="n">
-        <v>403.2116123608383</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>128.2994881014415</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0014566940505</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>128.6720848884028</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>128.6720848884036</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9167,25 +9167,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>38.42112401039867</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>184.9542567930219</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>423.8184615533932</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>128.6720848884036</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>210.3717057375258</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>126.7592588358119</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>319.3481610937334</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>402.5571885181424</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>43.76436205276624</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>70.97808868793209</v>
+        <v>250.6944819796088</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>403.2116123608383</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>140.8721484608838</v>
       </c>
       <c r="M23" t="n">
-        <v>428.4312992849744</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>321.5239366308526</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>43.76436205276624</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>128.6720848884034</v>
+        <v>128.6720848884028</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>286.9870403843076</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>363.3275189374195</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>128.6720848884036</v>
+        <v>128.672084888403</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>250.1260070966002</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>329.3442581776316</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>128.6720848884036</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7313605171358</v>
+        <v>270.342785086367</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>43.76436205276624</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>128.6720848884036</v>
+        <v>128.672084888403</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>16.64600457574082</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>79.29411209407752</v>
       </c>
       <c r="R35" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>128.6720848884036</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>191.5070775141899</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,22 +10829,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>432.040871167507</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>270.3427850863686</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>43.7643620527663</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>128.6720848884039</v>
+        <v>20.17005584830878</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>16.64600457573991</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>4.479395494891037</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>43.76436205276624</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>128.6720848884036</v>
+        <v>128.672084888403</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,22 +11303,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>432.0408711675079</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.3427850863686</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,13 +11379,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>128.6720848884036</v>
+        <v>20.17005584830878</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>94.66803194913088</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0107215343887</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>317.668199835643</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.1997591548757</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>169.5946815373599</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>263.4900882335161</v>
@@ -23321,7 +23321,7 @@
         <v>284.9787984807942</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>305.4689304418502</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>84.35330278159351</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.17179240995033</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>81.1588777863124</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>81.91422037874661</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.29025295233654</v>
+        <v>54.29025295233653</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.86261053062137</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>158.4409511393645</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>113.2946316866167</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>318.4716714268618</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0107215343887</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>65.60892054212329</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>83.06987043459567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>146.8599114426837</v>
+        <v>146.8599114426838</v>
       </c>
       <c r="U14" t="n">
-        <v>186.8646588149558</v>
+        <v>186.8646588149559</v>
       </c>
       <c r="V14" t="n">
         <v>263.4900882335161</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.14826628398098</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>84.35330278159351</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.17179240995033</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>81.1588777863124</v>
+        <v>54.66651322229217</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>87.0562070471024</v>
+        <v>87.05620704710245</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.29025295233659</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>187.8754730872092</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>100.4122490639218</v>
       </c>
       <c r="W17" t="n">
-        <v>100.412249063922</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>100.4122490639219</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>100.4122490639213</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.719513420539442e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954814.2838259869</v>
+        <v>954814.2838259868</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409638.1693585191</v>
+        <v>409638.1693585193</v>
       </c>
       <c r="C2" t="n">
         <v>409638.1693585193</v>
@@ -26320,7 +26320,7 @@
         <v>409638.1693585191</v>
       </c>
       <c r="E2" t="n">
-        <v>355516.5164285852</v>
+        <v>355516.5164285855</v>
       </c>
       <c r="F2" t="n">
         <v>355516.5164285853</v>
@@ -26332,7 +26332,7 @@
         <v>406524.477419398</v>
       </c>
       <c r="I2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="J2" t="n">
         <v>410520.8849321419</v>
@@ -26344,16 +26344,16 @@
         <v>410520.8849321419</v>
       </c>
       <c r="M2" t="n">
+        <v>410520.8849321418</v>
+      </c>
+      <c r="N2" t="n">
         <v>410520.8849321419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>410520.884932142</v>
       </c>
       <c r="O2" t="n">
         <v>410520.884932142</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>792873.2514315095</v>
+        <v>792873.2514315097</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64291.4665442811</v>
+        <v>64291.46654428112</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>6880.469409226706</v>
       </c>
       <c r="J3" t="n">
-        <v>62318.39567828074</v>
+        <v>62318.39567828069</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64291.46654428112</v>
+        <v>64291.46654428114</v>
       </c>
       <c r="M3" t="n">
-        <v>162606.9521943979</v>
+        <v>162606.9521943978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>131476.9821979761</v>
+        <v>131476.982197976</v>
       </c>
       <c r="F4" t="n">
-        <v>131476.9821979761</v>
+        <v>131476.982197976</v>
       </c>
       <c r="G4" t="n">
-        <v>189547.7028295033</v>
+        <v>189547.7028295032</v>
       </c>
       <c r="H4" t="n">
-        <v>189547.7028295033</v>
+        <v>189547.7028295032</v>
       </c>
       <c r="I4" t="n">
-        <v>192414.2210230132</v>
+        <v>192414.2210230131</v>
       </c>
       <c r="J4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002273</v>
       </c>
       <c r="K4" t="n">
         <v>177002.7601002274</v>
@@ -26448,10 +26448,10 @@
         <v>177002.7601002274</v>
       </c>
       <c r="M4" t="n">
-        <v>177002.7601002275</v>
+        <v>177002.7601002274</v>
       </c>
       <c r="N4" t="n">
-        <v>177002.7601002275</v>
+        <v>177002.7601002274</v>
       </c>
       <c r="O4" t="n">
         <v>177002.7601002274</v>
@@ -26479,7 +26479,7 @@
         <v>59907.62218574651</v>
       </c>
       <c r="F5" t="n">
-        <v>59907.62218574651</v>
+        <v>59907.6221857465</v>
       </c>
       <c r="G5" t="n">
         <v>66663.77131188547</v>
@@ -26491,7 +26491,7 @@
         <v>68236.91724650885</v>
       </c>
       <c r="J5" t="n">
-        <v>77315.81130726748</v>
+        <v>77315.81130726746</v>
       </c>
       <c r="K5" t="n">
         <v>77315.81130726746</v>
@@ -26503,7 +26503,7 @@
         <v>77315.81130726746</v>
       </c>
       <c r="N5" t="n">
-        <v>77315.81130726745</v>
+        <v>77315.81130726746</v>
       </c>
       <c r="O5" t="n">
         <v>77315.81130726746</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44137.19953101212</v>
+        <v>-44141.61310888012</v>
       </c>
       <c r="C6" t="n">
-        <v>-44137.199531012</v>
+        <v>-44141.61310888012</v>
       </c>
       <c r="D6" t="n">
-        <v>-44137.19953101212</v>
+        <v>-44141.61310888024</v>
       </c>
       <c r="E6" t="n">
-        <v>-628741.339386647</v>
+        <v>-629016.3612291646</v>
       </c>
       <c r="F6" t="n">
-        <v>164131.9120448627</v>
+        <v>163856.8902023452</v>
       </c>
       <c r="G6" t="n">
-        <v>86021.53673372805</v>
+        <v>86001.55469616433</v>
       </c>
       <c r="H6" t="n">
-        <v>150313.0032780092</v>
+        <v>150293.0212404456</v>
       </c>
       <c r="I6" t="n">
-        <v>142989.2772533933</v>
+        <v>142989.2772533934</v>
       </c>
       <c r="J6" t="n">
-        <v>93883.91784636625</v>
+        <v>93883.91784636641</v>
       </c>
       <c r="K6" t="n">
         <v>156202.313524647</v>
       </c>
       <c r="L6" t="n">
-        <v>91910.84698036595</v>
+        <v>91910.84698036592</v>
       </c>
       <c r="M6" t="n">
-        <v>-6404.638669750857</v>
+        <v>-6404.638669750886</v>
       </c>
       <c r="N6" t="n">
         <v>156202.3135246471</v>
       </c>
       <c r="O6" t="n">
-        <v>156202.3135246471</v>
+        <v>156202.3135246472</v>
       </c>
       <c r="P6" t="n">
-        <v>156202.3135246469</v>
+        <v>156202.313524647</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>64.26217023661884</v>
       </c>
       <c r="F2" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="G2" t="n">
         <v>144.6265034169702</v>
@@ -26707,25 +26707,25 @@
         <v>144.6265034169702</v>
       </c>
       <c r="J2" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="K2" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L2" t="n">
+        <v>80.36433318035142</v>
+      </c>
+      <c r="M2" t="n">
+        <v>80.36433318035141</v>
+      </c>
+      <c r="N2" t="n">
+        <v>80.36433318035141</v>
+      </c>
+      <c r="O2" t="n">
+        <v>80.36433318035141</v>
+      </c>
+      <c r="P2" t="n">
         <v>80.36433318035139</v>
-      </c>
-      <c r="M2" t="n">
-        <v>80.36433318035145</v>
-      </c>
-      <c r="N2" t="n">
-        <v>80.36433318035145</v>
-      </c>
-      <c r="O2" t="n">
-        <v>80.36433318035144</v>
-      </c>
-      <c r="P2" t="n">
-        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="F3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="G3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="H3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="I3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="J3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="K3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="L3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="M3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="N3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="O3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="P3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
     </row>
     <row r="4">
@@ -26811,22 +26811,22 @@
         <v>678.3794966932129</v>
       </c>
       <c r="J4" t="n">
-        <v>916.5596027850046</v>
+        <v>916.5596027850044</v>
       </c>
       <c r="K4" t="n">
-        <v>916.5596027850045</v>
+        <v>916.5596027850044</v>
       </c>
       <c r="L4" t="n">
-        <v>916.5596027850045</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="M4" t="n">
+        <v>916.5596027850042</v>
+      </c>
+      <c r="N4" t="n">
         <v>916.5596027850044</v>
       </c>
-      <c r="N4" t="n">
-        <v>916.5596027850041</v>
-      </c>
       <c r="O4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850044</v>
       </c>
       <c r="P4" t="n">
         <v>916.5596027850045</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36433318035138</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>25.8741107668319</v>
       </c>
       <c r="J4" t="n">
-        <v>238.1801060917917</v>
+        <v>238.1801060917915</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5053859263808</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035138</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="C14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="D14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="E14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="F14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="G14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="H14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="I14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="T14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="U14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="V14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="W14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="X14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="C16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="D16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="E16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="F16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="G16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="H16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="I16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="J16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="K16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="L16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="M16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="N16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="O16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="P16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="R16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="S16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="T16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="U16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="V16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="W16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="X16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.26217023661884</v>
+        <v>64.26217023661879</v>
       </c>
     </row>
     <row r="17">
@@ -28728,13 +28728,13 @@
         <v>144.6265034169702</v>
       </c>
       <c r="E19" t="n">
-        <v>77.89978780722794</v>
+        <v>77.89978780722788</v>
       </c>
       <c r="F19" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="G19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613065132155995</v>
+        <v>6.613065132155953</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="U19" t="n">
         <v>144.6265034169702</v>
@@ -28959,10 +28959,10 @@
         <v>144.6265034169702</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="D22" t="n">
-        <v>62.01113028965378</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="E22" t="n">
         <v>144.6265034169702</v>
@@ -28980,7 +28980,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.613065132155953</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,22 +29004,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.1247807672402</v>
       </c>
       <c r="S22" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="T22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="V22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>144.6265034169702</v>
+        <v>77.89978780722774</v>
       </c>
       <c r="X22" t="n">
         <v>144.6265034169702</v>
@@ -29202,10 +29202,10 @@
         <v>144.6265034169702</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="F25" t="n">
-        <v>77.89978780722788</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="G25" t="n">
         <v>144.6265034169702</v>
@@ -29214,10 +29214,10 @@
         <v>144.6265034169702</v>
       </c>
       <c r="I25" t="n">
-        <v>118.5524231889554</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613065132155995</v>
+        <v>6.613065132155953</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,10 +29241,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.1247807672402</v>
+        <v>29.32398492948302</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>144.6265034169702</v>
@@ -29256,7 +29256,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="X25" t="n">
         <v>144.6265034169702</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="C26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="D26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="E26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="G26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="H26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="I26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="T26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="U26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="V26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="W26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="X26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="C28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="D28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="E28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="F28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="G28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="H28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="I28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="J28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="K28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="L28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="M28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="N28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="O28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="P28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="R28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="S28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="T28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="U28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="V28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="W28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="X28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035135</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N37" t="n">
-        <v>80.36433318035063</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035122</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L43" t="n">
-        <v>80.364333180351</v>
+        <v>80.36433318035117</v>
       </c>
       <c r="M43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="K46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="L46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="M46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="N46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="O46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="P46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="R46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="S46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H11" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I11" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J11" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K11" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L11" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M11" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N11" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O11" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P11" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q11" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R11" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S11" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T11" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U11" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H12" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I12" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J12" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K12" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L12" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M12" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N12" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O12" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P12" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q12" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R12" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S12" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T12" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H13" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J13" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K13" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L13" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M13" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N13" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O13" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P13" t="n">
         <v>148.3953084420742</v>
@@ -31941,16 +31941,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R13" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S13" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T13" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H14" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I14" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J14" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K14" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L14" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M14" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O14" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P14" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q14" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R14" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S14" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T14" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U14" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H15" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I15" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J15" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K15" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L15" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M15" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N15" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O15" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P15" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q15" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R15" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S15" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T15" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H16" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I16" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J16" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K16" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L16" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M16" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N16" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O16" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P16" t="n">
         <v>148.3953084420742</v>
@@ -32178,16 +32178,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R16" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S16" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T16" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H17" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I17" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J17" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K17" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L17" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M17" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N17" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O17" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P17" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q17" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R17" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S17" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T17" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U17" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H18" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I18" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J18" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K18" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L18" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N18" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O18" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P18" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R18" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S18" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T18" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H19" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I19" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J19" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K19" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L19" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M19" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N19" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O19" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P19" t="n">
         <v>148.3953084420742</v>
@@ -32415,16 +32415,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R19" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S19" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T19" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H20" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I20" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J20" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K20" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L20" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M20" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N20" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O20" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P20" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q20" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R20" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S20" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T20" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U20" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H21" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I21" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J21" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K21" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L21" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N21" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O21" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R21" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S21" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T21" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H22" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J22" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K22" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L22" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M22" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N22" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O22" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P22" t="n">
         <v>148.3953084420742</v>
@@ -32652,16 +32652,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R22" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S22" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T22" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H23" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I23" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J23" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K23" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L23" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M23" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N23" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O23" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P23" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q23" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R23" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S23" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T23" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U23" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H24" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I24" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J24" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K24" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L24" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N24" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O24" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P24" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R24" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S24" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T24" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H25" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I25" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J25" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K25" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L25" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M25" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N25" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O25" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P25" t="n">
         <v>148.3953084420742</v>
@@ -32889,16 +32889,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R25" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S25" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T25" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H26" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I26" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J26" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K26" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L26" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M26" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N26" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O26" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P26" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q26" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R26" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S26" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T26" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U26" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H27" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I27" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J27" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K27" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L27" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N27" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O27" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P27" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R27" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S27" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T27" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,28 +33096,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H28" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I28" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J28" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K28" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L28" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M28" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N28" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O28" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P28" t="n">
         <v>148.3953084420742</v>
@@ -33126,16 +33126,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R28" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S28" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T28" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H29" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I29" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J29" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K29" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L29" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M29" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N29" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O29" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P29" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q29" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R29" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S29" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T29" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U29" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H30" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I30" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J30" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K30" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L30" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N30" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O30" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P30" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R30" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S30" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T30" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H31" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I31" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J31" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K31" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L31" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M31" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N31" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O31" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P31" t="n">
         <v>148.3953084420742</v>
@@ -33363,16 +33363,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R31" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S31" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T31" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H32" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I32" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J32" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K32" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L32" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M32" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N32" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O32" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P32" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q32" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R32" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S32" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T32" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U32" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H33" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I33" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J33" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K33" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L33" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N33" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O33" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P33" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R33" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S33" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T33" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,28 +33570,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H34" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I34" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J34" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K34" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L34" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M34" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N34" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O34" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P34" t="n">
         <v>148.3953084420742</v>
@@ -33600,16 +33600,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R34" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S34" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T34" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H35" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I35" t="n">
         <v>105.4525839816936</v>
@@ -33658,13 +33658,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K35" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L35" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M35" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N35" t="n">
         <v>488.0660966555615</v>
@@ -33673,22 +33673,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P35" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R35" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S35" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T35" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U35" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K36" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L36" t="n">
         <v>317.768591663394</v>
@@ -33746,28 +33746,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N36" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O36" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P36" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q36" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R36" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S36" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T36" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,28 +33807,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H37" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I37" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J37" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K37" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L37" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M37" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N37" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O37" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P37" t="n">
         <v>148.3953084420742</v>
@@ -33837,16 +33837,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R37" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S37" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T37" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.735298203273288</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H38" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I38" t="n">
-        <v>105.4525839816935</v>
+        <v>105.4525839816936</v>
       </c>
       <c r="J38" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K38" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L38" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M38" t="n">
-        <v>480.2944306355111</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N38" t="n">
-        <v>488.0660966555614</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O38" t="n">
-        <v>460.8669751467626</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P38" t="n">
-        <v>393.3393007534532</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R38" t="n">
-        <v>171.8211757613658</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S38" t="n">
-        <v>62.33060780709012</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T38" t="n">
-        <v>11.97376788482882</v>
+        <v>11.97376788482883</v>
       </c>
       <c r="U38" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H39" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I39" t="n">
-        <v>50.38851519154918</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J39" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K39" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L39" t="n">
-        <v>317.7685916633939</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8209582950058</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N39" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O39" t="n">
-        <v>348.2071061905692</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P39" t="n">
-        <v>279.4669011986838</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R39" t="n">
-        <v>90.86621924223827</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S39" t="n">
-        <v>27.18412252690581</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T39" t="n">
-        <v>5.898986682934226</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0962837869902214</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,28 +34044,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H40" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I40" t="n">
-        <v>36.89805173830289</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J40" t="n">
-        <v>86.74611498451677</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K40" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L40" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M40" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N40" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O40" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P40" t="n">
         <v>148.3953084420742</v>
@@ -34074,16 +34074,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R40" t="n">
-        <v>55.16861060992926</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S40" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T40" t="n">
-        <v>5.242468052298171</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06692512407189163</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H41" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I41" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J41" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K41" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L41" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M41" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N41" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O41" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P41" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R41" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S41" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T41" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U41" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H42" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I42" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J42" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K42" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L42" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N42" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O42" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P42" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R42" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S42" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T42" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,28 +34281,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H43" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I43" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J43" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K43" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L43" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M43" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N43" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O43" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P43" t="n">
         <v>148.3953084420742</v>
@@ -34311,16 +34311,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R43" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S43" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T43" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H44" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I44" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J44" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K44" t="n">
-        <v>347.9401888246248</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L44" t="n">
-        <v>431.6505712130498</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M44" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N44" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O44" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P44" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R44" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S44" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T44" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U44" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H45" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I45" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J45" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K45" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L45" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N45" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O45" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P45" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R45" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S45" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T45" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,28 +34518,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H46" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I46" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J46" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K46" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L46" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M46" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N46" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O46" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P46" t="n">
         <v>148.3953084420742</v>
@@ -34548,16 +34548,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R46" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S46" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T46" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.1091113533802</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K11" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L11" t="n">
-        <v>613.545370793513</v>
+        <v>195.8841562430628</v>
       </c>
       <c r="M11" t="n">
-        <v>249.9481974082384</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N11" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O11" t="n">
-        <v>611.5689449878213</v>
+        <v>437.6750783383147</v>
       </c>
       <c r="P11" t="n">
-        <v>162.1063049981838</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q11" t="n">
-        <v>162.7789189575679</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R11" t="n">
-        <v>21.9520578202162</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L12" t="n">
-        <v>275.5150297145438</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M12" t="n">
-        <v>228.6869243729876</v>
+        <v>357.35900926139</v>
       </c>
       <c r="N12" t="n">
-        <v>652.5053859263809</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O12" t="n">
-        <v>205.6108617461248</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P12" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.64910510446285</v>
+        <v>57.64910510446289</v>
       </c>
       <c r="K13" t="n">
-        <v>184.543192683865</v>
+        <v>184.5431926838651</v>
       </c>
       <c r="L13" t="n">
-        <v>274.2677753422208</v>
+        <v>274.2677753422209</v>
       </c>
       <c r="M13" t="n">
-        <v>296.1776995937304</v>
+        <v>296.1776995937306</v>
       </c>
       <c r="N13" t="n">
-        <v>296.1527781995393</v>
+        <v>296.1527781995395</v>
       </c>
       <c r="O13" t="n">
         <v>262.2726029956203</v>
@@ -35586,7 +35586,7 @@
         <v>209.9360379435865</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.84134662262335</v>
+        <v>80.84134662262338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.1091113533802</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K14" t="n">
-        <v>451.995750350809</v>
+        <v>256.1498258810859</v>
       </c>
       <c r="L14" t="n">
-        <v>195.8841562430626</v>
+        <v>195.8841562430628</v>
       </c>
       <c r="M14" t="n">
-        <v>249.9481974082384</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N14" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O14" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P14" t="n">
-        <v>479.1077616922343</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q14" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L15" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M15" t="n">
-        <v>228.6869243729876</v>
+        <v>357.3590092613905</v>
       </c>
       <c r="N15" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O15" t="n">
-        <v>334.2829466345285</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P15" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.64910510446285</v>
+        <v>57.64910510446283</v>
       </c>
       <c r="K16" t="n">
         <v>184.543192683865</v>
@@ -35811,10 +35811,10 @@
         <v>274.2677753422208</v>
       </c>
       <c r="M16" t="n">
-        <v>296.1776995937304</v>
+        <v>296.1776995937305</v>
       </c>
       <c r="N16" t="n">
-        <v>296.1527781995393</v>
+        <v>296.1527781995394</v>
       </c>
       <c r="O16" t="n">
         <v>262.2726029956203</v>
@@ -35823,7 +35823,7 @@
         <v>209.9360379435865</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.84134662262335</v>
+        <v>80.84134662262332</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K17" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L17" t="n">
-        <v>234.3052802534613</v>
+        <v>195.8841562430628</v>
       </c>
       <c r="M17" t="n">
-        <v>249.9481974082384</v>
+        <v>434.9024542012605</v>
       </c>
       <c r="N17" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O17" t="n">
-        <v>611.5689449878213</v>
+        <v>230.7687637250761</v>
       </c>
       <c r="P17" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q17" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L18" t="n">
-        <v>550.054557186979</v>
+        <v>179.2142118835199</v>
       </c>
       <c r="M18" t="n">
-        <v>228.6869243729876</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="N18" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O18" t="n">
-        <v>334.2829466345285</v>
+        <v>599.4731810228545</v>
       </c>
       <c r="P18" t="n">
-        <v>463.9552624242908</v>
+        <v>355.8641995218796</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.9117360873878</v>
+        <v>46.83444835153875</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,19 +36048,19 @@
         <v>210.005605105602</v>
       </c>
       <c r="M19" t="n">
-        <v>231.9155293571116</v>
+        <v>231.9155293571117</v>
       </c>
       <c r="N19" t="n">
-        <v>231.8906079629205</v>
+        <v>231.8906079629206</v>
       </c>
       <c r="O19" t="n">
-        <v>198.0104327590014</v>
+        <v>198.0104327590015</v>
       </c>
       <c r="P19" t="n">
         <v>145.6738677069677</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.57917638600451</v>
+        <v>16.57917638600453</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.1091113533802</v>
+        <v>177.8683701891921</v>
       </c>
       <c r="K20" t="n">
-        <v>127.8503377796443</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L20" t="n">
-        <v>515.232317336796</v>
+        <v>195.8841562430628</v>
       </c>
       <c r="M20" t="n">
-        <v>249.9481974082384</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O20" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P20" t="n">
-        <v>483.9050131696664</v>
+        <v>162.1063049981839</v>
       </c>
       <c r="Q20" t="n">
-        <v>285.3907346341837</v>
+        <v>73.07574397427916</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.43231037042392</v>
+        <v>11.43231037042395</v>
       </c>
       <c r="K21" t="n">
-        <v>362.9491437461517</v>
+        <v>98.48390673357312</v>
       </c>
       <c r="L21" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M21" t="n">
-        <v>299.6650130609196</v>
+        <v>479.3814063525965</v>
       </c>
       <c r="N21" t="n">
-        <v>249.2937735655425</v>
+        <v>652.505385926381</v>
       </c>
       <c r="O21" t="n">
-        <v>599.4731810228543</v>
+        <v>599.4731810228545</v>
       </c>
       <c r="P21" t="n">
-        <v>463.9552624242908</v>
+        <v>145.4924937843538</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.8344483515387</v>
+        <v>46.83444835153875</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,19 +36285,19 @@
         <v>210.005605105602</v>
       </c>
       <c r="M22" t="n">
-        <v>231.9155293571116</v>
+        <v>231.9155293571117</v>
       </c>
       <c r="N22" t="n">
-        <v>231.8906079629205</v>
+        <v>231.8906079629206</v>
       </c>
       <c r="O22" t="n">
-        <v>198.0104327590014</v>
+        <v>198.0104327590015</v>
       </c>
       <c r="P22" t="n">
         <v>145.6738677069677</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.57917638600451</v>
+        <v>16.57917638600453</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K23" t="n">
-        <v>127.8503377796443</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L23" t="n">
-        <v>613.545370793513</v>
+        <v>336.7563047039466</v>
       </c>
       <c r="M23" t="n">
-        <v>678.3794966932129</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N23" t="n">
-        <v>580.1769696898232</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O23" t="n">
-        <v>230.768763725076</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P23" t="n">
-        <v>162.1063049981838</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.07574397427905</v>
+        <v>73.07574397427916</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L24" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M24" t="n">
-        <v>357.359009261391</v>
+        <v>357.3590092613905</v>
       </c>
       <c r="N24" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O24" t="n">
-        <v>205.6108617461248</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P24" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q24" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,19 +36522,19 @@
         <v>210.005605105602</v>
       </c>
       <c r="M25" t="n">
-        <v>231.9155293571116</v>
+        <v>231.9155293571117</v>
       </c>
       <c r="N25" t="n">
-        <v>231.8906079629205</v>
+        <v>231.8906079629206</v>
       </c>
       <c r="O25" t="n">
-        <v>198.0104327590014</v>
+        <v>198.0104327590015</v>
       </c>
       <c r="P25" t="n">
         <v>145.6738677069677</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.57917638600451</v>
+        <v>16.57917638600453</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K26" t="n">
-        <v>127.8503377796443</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L26" t="n">
-        <v>482.8711966273702</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M26" t="n">
-        <v>699.461730901071</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N26" t="n">
-        <v>695.9999574709548</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O26" t="n">
-        <v>611.5689449878213</v>
+        <v>594.0962826624956</v>
       </c>
       <c r="P26" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q26" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R26" t="n">
-        <v>21.9520578202162</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L27" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M27" t="n">
-        <v>357.3590092613912</v>
+        <v>357.3590092613907</v>
       </c>
       <c r="N27" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O27" t="n">
-        <v>205.6108617461248</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P27" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q27" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.75126804819537</v>
+        <v>73.7512680481954</v>
       </c>
       <c r="K28" t="n">
-        <v>200.6453556275975</v>
+        <v>200.6453556275976</v>
       </c>
       <c r="L28" t="n">
         <v>290.3699382859534</v>
@@ -36771,7 +36771,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.94350956635587</v>
+        <v>96.94350956635589</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.1091113533802</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K29" t="n">
-        <v>451.995750350809</v>
+        <v>377.9763448762446</v>
       </c>
       <c r="L29" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M29" t="n">
-        <v>699.461730901071</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N29" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709549</v>
       </c>
       <c r="O29" t="n">
-        <v>560.1130219027075</v>
+        <v>230.7687637250761</v>
       </c>
       <c r="P29" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q29" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L30" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M30" t="n">
-        <v>357.3590092613912</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N30" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O30" t="n">
-        <v>205.6108617461248</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P30" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q30" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.75126804819537</v>
+        <v>73.75126804819546</v>
       </c>
       <c r="K31" t="n">
-        <v>200.6453556275975</v>
+        <v>200.6453556275976</v>
       </c>
       <c r="L31" t="n">
         <v>290.3699382859534</v>
       </c>
       <c r="M31" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N31" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O31" t="n">
-        <v>278.3747659393528</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P31" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.94350956635587</v>
+        <v>96.94350956635594</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.205726525454</v>
+        <v>51.10911135338029</v>
       </c>
       <c r="K32" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L32" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M32" t="n">
-        <v>699.461730901071</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N32" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709549</v>
       </c>
       <c r="O32" t="n">
-        <v>230.768763725076</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P32" t="n">
-        <v>431.8376655153196</v>
+        <v>432.4490900845509</v>
       </c>
       <c r="Q32" t="n">
-        <v>285.3907346341837</v>
+        <v>73.07574397427916</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L33" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M33" t="n">
-        <v>357.3590092613912</v>
+        <v>357.3590092613907</v>
       </c>
       <c r="N33" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O33" t="n">
-        <v>205.6108617461248</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P33" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819547</v>
       </c>
       <c r="K34" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L34" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859535</v>
       </c>
       <c r="M34" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N34" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O34" t="n">
-        <v>278.3747659393528</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P34" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.9435095663559</v>
+        <v>96.94350956635596</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>220.205726525454</v>
       </c>
       <c r="K35" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L35" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935131</v>
       </c>
       <c r="M35" t="n">
-        <v>266.5942019839792</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N35" t="n">
         <v>695.9999574709548</v>
       </c>
       <c r="O35" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P35" t="n">
-        <v>483.9050131696664</v>
+        <v>162.1063049981838</v>
       </c>
       <c r="Q35" t="n">
-        <v>285.3907346341837</v>
+        <v>152.3698560683566</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.95205782021623</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L36" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M36" t="n">
-        <v>357.3590092613912</v>
+        <v>694.3919881229875</v>
       </c>
       <c r="N36" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O36" t="n">
-        <v>205.6108617461248</v>
+        <v>205.6108617461249</v>
       </c>
       <c r="P36" t="n">
-        <v>463.9552624242908</v>
+        <v>145.4924937843537</v>
       </c>
       <c r="Q36" t="n">
-        <v>256.9117360873878</v>
+        <v>238.3415258657287</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.75126804819546</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K37" t="n">
         <v>200.6453556275976</v>
@@ -37470,10 +37470,10 @@
         <v>290.3699382859534</v>
       </c>
       <c r="M37" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N37" t="n">
-        <v>312.2549411432711</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O37" t="n">
         <v>278.3747659393529</v>
@@ -37482,7 +37482,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.94350956635596</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.10911135338017</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K38" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L38" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M38" t="n">
-        <v>699.4617309010708</v>
+        <v>681.9890685757456</v>
       </c>
       <c r="N38" t="n">
-        <v>695.9999574709545</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O38" t="n">
-        <v>611.5689449878212</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P38" t="n">
-        <v>432.4490900845523</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q38" t="n">
-        <v>73.07574397427899</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.5233457108327</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K39" t="n">
-        <v>362.9491437461516</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L39" t="n">
-        <v>550.0545571869789</v>
+        <v>179.2142118835199</v>
       </c>
       <c r="M39" t="n">
-        <v>357.3590092613914</v>
+        <v>248.8569802212965</v>
       </c>
       <c r="N39" t="n">
-        <v>249.2937735655425</v>
+        <v>728.6361479090962</v>
       </c>
       <c r="O39" t="n">
-        <v>205.6108617461248</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P39" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q39" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819546</v>
       </c>
       <c r="K40" t="n">
         <v>200.6453556275976</v>
@@ -37707,19 +37707,19 @@
         <v>290.3699382859534</v>
       </c>
       <c r="M40" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N40" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O40" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393527</v>
       </c>
       <c r="P40" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.94350956635593</v>
+        <v>96.94350956635594</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K41" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L41" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M41" t="n">
-        <v>266.5942019839783</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N41" t="n">
-        <v>695.9999574709548</v>
+        <v>263.1324285538618</v>
       </c>
       <c r="O41" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P41" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q41" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L42" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M42" t="n">
-        <v>357.3590092613912</v>
+        <v>357.3590092613907</v>
       </c>
       <c r="N42" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O42" t="n">
-        <v>205.6108617461248</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P42" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819546</v>
       </c>
       <c r="K43" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L43" t="n">
-        <v>290.369938285953</v>
+        <v>290.3699382859532</v>
       </c>
       <c r="M43" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N43" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O43" t="n">
         <v>278.3747659393529</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.1091113533802</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K44" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L44" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M44" t="n">
-        <v>699.461730901071</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N44" t="n">
-        <v>695.9999574709548</v>
+        <v>690.6939042264786</v>
       </c>
       <c r="O44" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P44" t="n">
-        <v>432.4490900845523</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L45" t="n">
-        <v>550.054557186979</v>
+        <v>179.2142118835199</v>
       </c>
       <c r="M45" t="n">
-        <v>357.3590092613912</v>
+        <v>248.8569802212965</v>
       </c>
       <c r="N45" t="n">
-        <v>249.2937735655425</v>
+        <v>728.6361479090962</v>
       </c>
       <c r="O45" t="n">
-        <v>205.6108617461248</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P45" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.75126804819541</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K46" t="n">
         <v>200.6453556275976</v>
@@ -38181,19 +38181,19 @@
         <v>290.3699382859534</v>
       </c>
       <c r="M46" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N46" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O46" t="n">
-        <v>278.3747659393528</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P46" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
